--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\2023S2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F5C744-94CF-4EEA-9F38-C8142AC726FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71DA07A-6848-4D21-9B8A-5F3FAC4860CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -19,32 +19,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">staff!$A$1:$A$88</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">staff!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>NTU</t>
   </si>
@@ -55,9 +40,6 @@
     <t>JE</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>chicken nugget</t>
   </si>
   <si>
@@ -73,9 +55,6 @@
     <t>COLE SLAW</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>side</t>
   </si>
   <si>
@@ -89,13 +68,58 @@
   </si>
   <si>
     <t>drink</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Hot piping fries</t>
+  </si>
+  <si>
+    <t>Value meal</t>
+  </si>
+  <si>
+    <t>Hot piping fish</t>
+  </si>
+  <si>
+    <t>Fresh colesaw</t>
+  </si>
+  <si>
+    <t>Made with the finest chicken</t>
+  </si>
+  <si>
+    <t>Drink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,47 +128,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft Sans Serif"/>
+      <sz val="11"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,17 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -493,374 +490,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7265625" collapsed="1"/>
+    <col min="5" max="5" width="24.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.7265625" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>3.2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>9.9</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>5.6</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2.7</v>
       </c>
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B6">
         <v>10.4</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>6.9</v>
       </c>
       <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B8">
         <v>6.6</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>2.1</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71DA07A-6848-4D21-9B8A-5F3FAC4860CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EC2654-2382-4466-AB72-345F74BD2EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="staff" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">staff!$A$1:$A$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">staff!$A$2:$A$88</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">staff!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,90 +29,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>477c0c7e-9d46-4202-969d-f3dd1933a575</t>
+  </si>
+  <si>
+    <t>FRIES</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
   <si>
     <t>NTU</t>
   </si>
   <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>67136f7c-fcd0-45f1-8859-9e3d183faeb3</t>
+  </si>
+  <si>
+    <t>3PC set meal</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>set meal</t>
+  </si>
+  <si>
+    <t>Value meal</t>
+  </si>
+  <si>
+    <t>5cc0e578-41b6-4e7d-b6e8-5f287be3e857</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>6cd0a2b8-2412-4c2a-bf28-b52d043d414b</t>
+  </si>
+  <si>
+    <t>COLE SLAW</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>Fresh</t>
+  </si>
+  <si>
+    <t>9234b60f-23e1-4b28-9732-c987de0605a8</t>
+  </si>
+  <si>
+    <t>22148748-4c7e-4331-8686-d2c6d3c27e22</t>
+  </si>
+  <si>
+    <t>chicken nugget</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
     <t>JP</t>
   </si>
   <si>
-    <t>JE</t>
-  </si>
-  <si>
-    <t>chicken nugget</t>
-  </si>
-  <si>
-    <t>3PC set meal</t>
-  </si>
-  <si>
-    <t>CAJUN FISH</t>
-  </si>
-  <si>
-    <t>FRIES</t>
-  </si>
-  <si>
-    <t>COLE SLAW</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>burger</t>
-  </si>
-  <si>
-    <t>set meal</t>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>ec084e54-155c-4a11-b8e8-04df6cfe3c87</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Nice chicken</t>
+  </si>
+  <si>
+    <t>61606264-3573-4492-abed-5a026cdfc717</t>
   </si>
   <si>
     <t>pepsi</t>
   </si>
   <si>
-    <t>drink</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Hot piping fries</t>
-  </si>
-  <si>
-    <t>Value meal</t>
-  </si>
-  <si>
-    <t>Hot piping fish</t>
-  </si>
-  <si>
-    <t>Fresh colesaw</t>
-  </si>
-  <si>
-    <t>Made with the finest chicken</t>
-  </si>
-  <si>
-    <t>Drink</t>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>50% off</t>
   </si>
 </sst>
 </file>
@@ -490,12 +523,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,200 +541,193 @@
     <col min="6" max="16384" width="8.7265625" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>3.2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>9.9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>5.6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2.7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>10.4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>6.9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>6.6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>2.1</v>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -146,12 +146,31 @@
   </si>
   <si>
     <t>50% off</t>
+  </si>
+  <si>
+    <t>6afbf012-02ae-470f-8396-ff1a43790bc2</t>
+  </si>
+  <si>
+    <t>Tomato Soup</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>soup</t>
+  </si>
+  <si>
+    <t>Fresh tomatoes</t>
+  </si>
+  <si>
+    <t>4.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -533,12 +552,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7265625" collapsed="1"/>
-    <col min="5" max="5" width="24.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.7265625" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="4" max="4" width="8.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.90625" collapsed="true"/>
+    <col min="6" max="16384" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -701,25 +720,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -727,7 +729,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -752,10 +754,10 @@
       <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
@@ -785,10 +787,10 @@
       <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
@@ -863,10 +865,10 @@
       <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
+      <c r="A61" s="4"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4"/>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
@@ -906,9 +908,6 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EC2654-2382-4466-AB72-345F74BD2EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E3D8CF-4112-4A62-9FFD-7AF041C26783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
-    <sheet name="staff" sheetId="1" r:id="rId1"/>
+    <sheet name="menu" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">staff!$A$2:$A$88</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">staff!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">menu!$A$2:$A$88</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">menu!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -133,37 +133,46 @@
     <t>Nice chicken</t>
   </si>
   <si>
-    <t>61606264-3573-4492-abed-5a026cdfc717</t>
-  </si>
-  <si>
-    <t>pepsi</t>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>50% off</t>
+  </si>
+  <si>
+    <t>938a3160-f689-4c89-ba73-f9e2090def5b</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>35c61b76-ee9b-42c3-a957-8f6840da5f6d</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
   </si>
   <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>50% off</t>
-  </si>
-  <si>
-    <t>6afbf012-02ae-470f-8396-ff1a43790bc2</t>
-  </si>
-  <si>
-    <t>Tomato Soup</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>soup</t>
-  </si>
-  <si>
-    <t>Fresh tomatoes</t>
-  </si>
-  <si>
-    <t>4.8</t>
+    <t>Cold drink</t>
+  </si>
+  <si>
+    <t>15a5972f-5f86-40c0-ab00-a2a23bda6b33</t>
+  </si>
+  <si>
+    <t>Fresh chicken</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>61455e04-c834-4dd5-b64b-79514dc8ac62</t>
   </si>
 </sst>
 </file>
@@ -542,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -668,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -677,48 +686,71 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
@@ -751,10 +783,10 @@
       <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
@@ -784,10 +816,10 @@
       <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
@@ -862,10 +894,10 @@
       <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
+      <c r="A60" s="4"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
@@ -905,9 +937,6 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -173,6 +173,75 @@
   </si>
   <si>
     <t>61455e04-c834-4dd5-b64b-79514dc8ac62</t>
+  </si>
+  <si>
+    <t>0595eb38-9a4f-4a4e-ab06-67019a6f2fa5</t>
+  </si>
+  <si>
+    <t>Fries</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>tasty! yay</t>
+  </si>
+  <si>
+    <t>99105856-cc49-45df-b605-d5989d515319</t>
+  </si>
+  <si>
+    <t>Test tasty</t>
+  </si>
+  <si>
+    <t>9fdbdc80-b998-444e-a3af-0017900c9fc2</t>
+  </si>
+  <si>
+    <t>fries</t>
+  </si>
+  <si>
+    <t>Hot piping fries</t>
+  </si>
+  <si>
+    <t>931fe060-d1b5-487f-9bc4-ab60bd3fa135</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>e71db75f-edef-4691-88aa-f7c7114a725b</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>burger</t>
+  </si>
+  <si>
+    <t>Beef burger</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>Beef burger great deal</t>
+  </si>
+  <si>
+    <t>7f5f1d41-584e-481c-bacd-b8f303e75a6d</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Test Test</t>
+  </si>
+  <si>
+    <t>52805239-f4e6-494e-935e-59fd932fbb89</t>
+  </si>
+  <si>
+    <t>Chicken tenders</t>
   </si>
 </sst>
 </file>
@@ -551,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -589,44 +658,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -749,16 +818,39 @@
         <v>45</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
@@ -777,13 +869,13 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
@@ -810,13 +902,13 @@
       <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
@@ -888,13 +980,13 @@
       <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
+      <c r="A58" s="4"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4"/>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
@@ -931,12 +1023,6 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>Chicken tenders</t>
+  </si>
+  <si>
+    <t>3d3d93dd-35ae-4632-9abf-e504ec79e716</t>
+  </si>
+  <si>
+    <t>Teat</t>
+  </si>
+  <si>
+    <t>4.33</t>
   </si>
 </sst>
 </file>
@@ -838,8 +847,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>4.33</t>
+  </si>
+  <si>
+    <t>486fa33a-7628-4421-babb-8c3527b50c79</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -870,7 +873,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
@@ -892,10 +895,10 @@
       <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
@@ -925,10 +928,10 @@
       <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
@@ -1003,10 +1006,10 @@
       <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
+      <c r="A57" s="4"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4"/>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
@@ -1046,9 +1049,6 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t>486fa33a-7628-4421-babb-8c3527b50c79</t>
+  </si>
+  <si>
+    <t>ed718b0b-88f1-44cb-b4db-493fcf3ff473</t>
+  </si>
+  <si>
+    <t>Cool Drink</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Half Price!</t>
   </si>
 </sst>
 </file>
@@ -870,8 +882,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>Value Meal!</t>
+  </si>
+  <si>
+    <t>33122faf-da93-48ae-a714-6bb7c53ebd81</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>3.3</t>
   </si>
 </sst>
 </file>
@@ -656,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -950,10 +962,10 @@
       <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
@@ -983,10 +995,10 @@
       <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
@@ -1061,10 +1073,10 @@
       <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
@@ -1104,9 +1116,6 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -632,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -850,27 +850,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
@@ -892,10 +875,10 @@
       <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
@@ -925,10 +908,10 @@
       <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
@@ -1003,10 +986,10 @@
       <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
@@ -1046,9 +1029,6 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E3D8CF-4112-4A62-9FFD-7AF041C26783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F6FC87-AFD1-462C-A6C9-D79F64E2D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">menu!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -49,12 +50,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>477c0c7e-9d46-4202-969d-f3dd1933a575</t>
-  </si>
-  <si>
-    <t>FRIES</t>
-  </si>
-  <si>
     <t>3.2</t>
   </si>
   <si>
@@ -64,21 +59,9 @@
     <t>side</t>
   </si>
   <si>
-    <t>67136f7c-fcd0-45f1-8859-9e3d183faeb3</t>
-  </si>
-  <si>
-    <t>3PC set meal</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
     <t>set meal</t>
   </si>
   <si>
-    <t>Value meal</t>
-  </si>
-  <si>
     <t>5cc0e578-41b6-4e7d-b6e8-5f287be3e857</t>
   </si>
   <si>
@@ -97,9 +80,6 @@
     <t>6cd0a2b8-2412-4c2a-bf28-b52d043d414b</t>
   </si>
   <si>
-    <t>COLE SLAW</t>
-  </si>
-  <si>
     <t>2.7</t>
   </si>
   <si>
@@ -109,163 +89,148 @@
     <t>9234b60f-23e1-4b28-9732-c987de0605a8</t>
   </si>
   <si>
-    <t>22148748-4c7e-4331-8686-d2c6d3c27e22</t>
-  </si>
-  <si>
-    <t>chicken nugget</t>
-  </si>
-  <si>
     <t>6.9</t>
   </si>
   <si>
     <t>JP</t>
   </si>
   <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>ec084e54-155c-4a11-b8e8-04df6cfe3c87</t>
-  </si>
-  <si>
     <t>6.6</t>
   </si>
   <si>
-    <t>Nice chicken</t>
-  </si>
-  <si>
     <t>5.2</t>
   </si>
   <si>
     <t>50% off</t>
   </si>
   <si>
-    <t>938a3160-f689-4c89-ba73-f9e2090def5b</t>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>35c61b76-ee9b-42c3-a957-8f6840da5f6d</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Cold drink</t>
+  </si>
+  <si>
+    <t>15a5972f-5f86-40c0-ab00-a2a23bda6b33</t>
+  </si>
+  <si>
+    <t>Fresh chicken</t>
+  </si>
+  <si>
+    <t>61455e04-c834-4dd5-b64b-79514dc8ac62</t>
+  </si>
+  <si>
+    <t>Fries</t>
+  </si>
+  <si>
+    <t>9fdbdc80-b998-444e-a3af-0017900c9fc2</t>
+  </si>
+  <si>
+    <t>Hot piping fries</t>
+  </si>
+  <si>
+    <t>931fe060-d1b5-487f-9bc4-ab60bd3fa135</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>52805239-f4e6-494e-935e-59fd932fbb89</t>
+  </si>
+  <si>
+    <t>Cole Slaw</t>
+  </si>
+  <si>
+    <t>3pc Set Meal</t>
+  </si>
+  <si>
+    <t>Chicken Nugget</t>
+  </si>
+  <si>
+    <t>Chicken Tenders</t>
+  </si>
+  <si>
+    <t>730de243-1c1b-4708-851a-c02eb2e61a90</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>35c61b76-ee9b-42c3-a957-8f6840da5f6d</t>
-  </si>
-  <si>
-    <t>Pepsi</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Cold drink</t>
-  </si>
-  <si>
-    <t>15a5972f-5f86-40c0-ab00-a2a23bda6b33</t>
-  </si>
-  <si>
-    <t>Fresh chicken</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>61455e04-c834-4dd5-b64b-79514dc8ac62</t>
-  </si>
-  <si>
-    <t>0595eb38-9a4f-4a4e-ab06-67019a6f2fa5</t>
-  </si>
-  <si>
-    <t>Fries</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>tasty! yay</t>
-  </si>
-  <si>
-    <t>99105856-cc49-45df-b605-d5989d515319</t>
-  </si>
-  <si>
-    <t>Test tasty</t>
-  </si>
-  <si>
-    <t>9fdbdc80-b998-444e-a3af-0017900c9fc2</t>
-  </si>
-  <si>
-    <t>fries</t>
-  </si>
-  <si>
-    <t>Hot piping fries</t>
-  </si>
-  <si>
-    <t>931fe060-d1b5-487f-9bc4-ab60bd3fa135</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>e71db75f-edef-4691-88aa-f7c7114a725b</t>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hot piping water</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>7e6232dc-0bd7-4166-893c-3e5ba77e672f</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Hot piping tea</t>
+  </si>
+  <si>
+    <t>96a735d2-3377-4fac-9c11-9c19505503b9</t>
   </si>
   <si>
     <t>Burger</t>
   </si>
   <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>burger</t>
-  </si>
-  <si>
-    <t>Beef burger</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>Beef burger great deal</t>
-  </si>
-  <si>
-    <t>7f5f1d41-584e-481c-bacd-b8f303e75a6d</t>
+    <t>729ef343-2d53-4d7c-8c14-af4be210b4ce</t>
+  </si>
+  <si>
+    <t>4j4t</t>
+  </si>
+  <si>
+    <t>texts</t>
+  </si>
+  <si>
+    <t>f860d94c-2e53-41cf-afe5-a524c01d3a23</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>AMK</t>
+  </si>
+  <si>
+    <t>tetsn toj</t>
+  </si>
+  <si>
+    <t>bb85150e-da6c-4847-9ccd-8abcfb012ec3</t>
+  </si>
+  <si>
+    <t>Tekn</t>
   </si>
   <si>
     <t>3.4</t>
   </si>
   <si>
-    <t>Test Test</t>
-  </si>
-  <si>
-    <t>52805239-f4e6-494e-935e-59fd932fbb89</t>
-  </si>
-  <si>
-    <t>Chicken tenders</t>
-  </si>
-  <si>
-    <t>3d3d93dd-35ae-4632-9abf-e504ec79e716</t>
-  </si>
-  <si>
-    <t>Teat</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>486fa33a-7628-4421-babb-8c3527b50c79</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>04e97c9d-4c19-4a1a-9046-b975f194ac6a</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>fresh burger</t>
+    <t>tet.stc te</t>
   </si>
 </sst>
 </file>
@@ -649,7 +614,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,137 +647,205 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F6FC87-AFD1-462C-A6C9-D79F64E2D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A17F9B-5B91-4F19-A255-3AACE584F9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -20,9 +20,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">menu!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -158,33 +157,9 @@
     <t>Chicken Tenders</t>
   </si>
   <si>
-    <t>730de243-1c1b-4708-851a-c02eb2e61a90</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>hot piping water</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
     <t>7e6232dc-0bd7-4166-893c-3e5ba77e672f</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>5.3</t>
   </si>
   <si>
@@ -192,114 +167,16 @@
   </si>
   <si>
     <t>Hot piping tea</t>
-  </si>
-  <si>
-    <t>96a735d2-3377-4fac-9c11-9c19505503b9</t>
-  </si>
-  <si>
-    <t>Burger</t>
-  </si>
-  <si>
-    <t>729ef343-2d53-4d7c-8c14-af4be210b4ce</t>
-  </si>
-  <si>
-    <t>4j4t</t>
-  </si>
-  <si>
-    <t>texts</t>
-  </si>
-  <si>
-    <t>f860d94c-2e53-41cf-afe5-a524c01d3a23</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>AMK</t>
-  </si>
-  <si>
-    <t>tetsn toj</t>
-  </si>
-  <si>
-    <t>bb85150e-da6c-4847-9ccd-8abcfb012ec3</t>
-  </si>
-  <si>
-    <t>Tekn</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>tet.stc te</t>
-  </si>
-  <si>
-    <t>329c5443-17b5-4007-b6d9-d82c2bfdf8b4</t>
-  </si>
-  <si>
-    <t>half price!</t>
-  </si>
-  <si>
-    <t>Half Price</t>
-  </si>
-  <si>
-    <t>40533af7-2edc-47f2-87e2-439246fd5b0e</t>
-  </si>
-  <si>
-    <t>5f24f7ce-71f4-44e2-a53d-41e962263004</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>Test Test Test</t>
-  </si>
-  <si>
-    <t>2e7f9e08-2acb-416f-b492-2de6b8791c0c</t>
-  </si>
-  <si>
-    <t>Mcflurry</t>
-  </si>
-  <si>
-    <t>Ice cream</t>
-  </si>
-  <si>
-    <t>Popeye</t>
-  </si>
-  <si>
-    <t>1c33f2a4-d327-49df-888c-fb1e73761f10</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>5c5ea702-8189-4890-8398-76f6b1652002</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>Test test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -338,14 +215,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,17 +541,17 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.81640625" collapsed="true"/>
-    <col min="4" max="4" width="8.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.90625" collapsed="true"/>
-    <col min="6" max="16384" width="8.7265625" collapsed="true"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7265625" collapsed="1"/>
+    <col min="5" max="5" width="24.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.7265625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -878,15 +754,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -895,22 +771,22 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -923,7 +799,7 @@
       <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
@@ -1001,7 +877,7 @@
       <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -167,12 +167,31 @@
   </si>
   <si>
     <t>Hot piping tea</t>
+  </si>
+  <si>
+    <t>392c340c-6104-44fc-8759-e9565bc64ed9</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Hot burger</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>Hot burger with sauce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -546,12 +565,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7265625" collapsed="1"/>
-    <col min="5" max="5" width="24.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.7265625" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="4" max="4" width="8.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.90625" collapsed="true"/>
+    <col min="6" max="16384" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -576,16 +595,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -596,116 +615,116 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -716,13 +735,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -736,42 +755,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -786,7 +805,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -796,10 +815,10 @@
       <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
@@ -874,10 +893,10 @@
       <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
@@ -917,9 +936,6 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A17F9B-5B91-4F19-A255-3AACE584F9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C8616E-C514-4E87-9980-C32B1A3F59F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -130,18 +130,12 @@
     <t>Fries</t>
   </si>
   <si>
-    <t>9fdbdc80-b998-444e-a3af-0017900c9fc2</t>
-  </si>
-  <si>
     <t>Hot piping fries</t>
   </si>
   <si>
     <t>931fe060-d1b5-487f-9bc4-ab60bd3fa135</t>
   </si>
   <si>
-    <t>3.7</t>
-  </si>
-  <si>
     <t>52805239-f4e6-494e-935e-59fd932fbb89</t>
   </si>
   <si>
@@ -173,12 +167,6 @@
   </si>
   <si>
     <t>Burger</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>Hot burger</t>
   </si>
   <si>
     <t>6.7</t>
@@ -191,7 +179,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,17 +547,18 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD11"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.81640625" collapsed="true"/>
-    <col min="4" max="4" width="8.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.90625" collapsed="true"/>
-    <col min="6" max="16384" width="8.7265625" collapsed="true"/>
+    <col min="1" max="1" width="35.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="8.7265625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -595,7 +583,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -610,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -638,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -658,7 +646,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -698,7 +686,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -718,7 +706,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -735,10 +723,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -755,13 +743,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -770,27 +758,27 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -805,7 +793,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C8616E-C514-4E87-9980-C32B1A3F59F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764ACA06-106A-43E6-8D28-3963606779B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -161,18 +161,6 @@
   </si>
   <si>
     <t>Hot piping tea</t>
-  </si>
-  <si>
-    <t>392c340c-6104-44fc-8759-e9565bc64ed9</t>
-  </si>
-  <si>
-    <t>Burger</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>Hot burger with sauce</t>
   </si>
 </sst>
 </file>
@@ -547,7 +535,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,26 +749,6 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764ACA06-106A-43E6-8D28-3963606779B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AAD2F3-C9D4-4D1A-B719-B4B7F2ECBE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -149,18 +149,6 @@
   </si>
   <si>
     <t>Chicken Tenders</t>
-  </si>
-  <si>
-    <t>7e6232dc-0bd7-4166-893c-3e5ba77e672f</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>Tea</t>
-  </si>
-  <si>
-    <t>Hot piping tea</t>
   </si>
 </sst>
 </file>
@@ -530,12 +518,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,25 +717,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -768,10 +739,10 @@
       <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
@@ -846,10 +817,10 @@
       <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
@@ -889,9 +860,6 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/FOMS/data/menu_list.xlsx
+++ b/FOMS/data/menu_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AAD2F3-C9D4-4D1A-B719-B4B7F2ECBE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AC8E6E-12D9-4D40-BA87-90AA1C118CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="menu" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">menu!$A$2:$A$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">menu!$A$2:$A$87</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">menu!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -55,12 +55,6 @@
     <t>NTU</t>
   </si>
   <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>set meal</t>
-  </si>
-  <si>
     <t>5cc0e578-41b6-4e7d-b6e8-5f287be3e857</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>JE</t>
   </si>
   <si>
-    <t>drink</t>
-  </si>
-  <si>
     <t>Drink</t>
   </si>
   <si>
@@ -149,6 +140,21 @@
   </si>
   <si>
     <t>Chicken Tenders</t>
+  </si>
+  <si>
+    <t>59771940-d63f-4498-b311-a68b5d1b4ce0</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Hot piping tea</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Set Meal</t>
   </si>
 </sst>
 </file>
@@ -518,12 +524,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,162 +565,182 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -733,13 +759,13 @@
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
@@ -811,13 +837,13 @@
       <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
+      <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
@@ -854,12 +880,6 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
